--- a/data/Rating History/Clean ICRA Mapping.xlsx
+++ b/data/Rating History/Clean ICRA Mapping.xlsx
@@ -811,12 +811,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H22"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
